--- a/optimize_processing/FinalResultSheets.xlsx
+++ b/optimize_processing/FinalResultSheets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Documents\GitHub\Band\optimize_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Smart band\Ayush\Band\optimize_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P3"/>
+      <selection activeCell="A7" sqref="A7:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +492,156 @@
         <v>193.51441747629434</v>
       </c>
       <c r="P3">
+        <v>0.12887438825448613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.97</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>1968</v>
+      </c>
+      <c r="H7">
+        <v>984</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>8.6418189384096008E-3</v>
+      </c>
+      <c r="K7">
+        <v>4.367383914771597E-2</v>
+      </c>
+      <c r="L7">
+        <v>3.4952877196680929E-2</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>269.60940162013418</v>
+      </c>
+      <c r="O7">
+        <v>64.983932683170679</v>
+      </c>
+      <c r="P7">
+        <v>1.6965742251223492E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>1968</v>
+      </c>
+      <c r="H8">
+        <v>984</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1.5067199841777015</v>
+      </c>
+      <c r="K8">
+        <v>1.8038339127088756</v>
+      </c>
+      <c r="L8">
+        <v>1.4407630656129709</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>607.2340867050001</v>
+      </c>
+      <c r="O8">
+        <v>215.80931851316203</v>
+      </c>
+      <c r="P8">
+        <v>0.12887438825448613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.97</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>1968</v>
+      </c>
+      <c r="H9">
+        <v>984</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1.5067199841777015</v>
+      </c>
+      <c r="K9">
+        <v>1.8038339127088756</v>
+      </c>
+      <c r="L9">
+        <v>1.4407630656129709</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <v>660.06849904944079</v>
+      </c>
+      <c r="O9">
+        <v>234.52089714132424</v>
+      </c>
+      <c r="P9">
         <v>0.12887438825448613</v>
       </c>
     </row>
@@ -502,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P4"/>
+  <dimension ref="A2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,25 +689,25 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>9.6906098846869654E-2</v>
+        <v>9.2901503541301181E-3</v>
       </c>
       <c r="K2">
-        <v>7.7932108317953219E-2</v>
+        <v>4.0258337936779118E-2</v>
       </c>
       <c r="L2">
-        <v>0.12023099259319919</v>
+        <v>5.2752539973885099E-2</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N2">
-        <v>218.73031829155926</v>
+        <v>269.93162968499269</v>
       </c>
       <c r="O2">
-        <v>23.660411714622285</v>
+        <v>39.780329822519356</v>
       </c>
       <c r="P2">
-        <v>9.8673300165837474E-2</v>
+        <v>2.0228384991843394E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -589,25 +739,25 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>1.5067199841777015</v>
+        <v>9.3675003481940682E-3</v>
       </c>
       <c r="K3">
-        <v>1.8038339127088756</v>
+        <v>5.9104265826384797E-2</v>
       </c>
       <c r="L3">
-        <v>1.4407630656129709</v>
+        <v>4.0020390874937126E-2</v>
       </c>
       <c r="M3">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="N3">
-        <v>607.2340867050001</v>
+        <v>271.75457919133351</v>
       </c>
       <c r="O3">
-        <v>215.80931851316203</v>
+        <v>50.246622204942511</v>
       </c>
       <c r="P3">
-        <v>0.12887438825448613</v>
+        <v>1.8270799347471452E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -639,25 +789,125 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>1.5067199841777015</v>
+        <v>9.53776175097318E-3</v>
       </c>
       <c r="K4">
-        <v>1.8038339127088756</v>
+        <v>7.0028283547520095E-2</v>
       </c>
       <c r="L4">
-        <v>1.4407630656129709</v>
+        <v>6.7609322486650469E-2</v>
       </c>
       <c r="M4">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="N4">
-        <v>660.06849904944079</v>
+        <v>268.81026571987786</v>
       </c>
       <c r="O4">
-        <v>234.52089714132424</v>
+        <v>48.116546909392987</v>
       </c>
       <c r="P4">
-        <v>0.12887438825448613</v>
+        <v>2.7079934747145186E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1968</v>
+      </c>
+      <c r="H5">
+        <v>984</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4.4632892330857439E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.15760791142031555</v>
+      </c>
+      <c r="L5">
+        <v>9.5921361753544654E-2</v>
+      </c>
+      <c r="M5">
+        <v>79</v>
+      </c>
+      <c r="N5">
+        <v>268.84377109235294</v>
+      </c>
+      <c r="O5">
+        <v>86.487232296912708</v>
+      </c>
+      <c r="P5">
+        <v>2.4796084828711255E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1968</v>
+      </c>
+      <c r="H6">
+        <v>984</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>9.015089527290826E-3</v>
+      </c>
+      <c r="K6">
+        <v>6.4826768133407583E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.7811065019905142E-2</v>
+      </c>
+      <c r="M6">
+        <v>37</v>
+      </c>
+      <c r="N6">
+        <v>268.63246661748389</v>
+      </c>
+      <c r="O6">
+        <v>58.905514107048631</v>
+      </c>
+      <c r="P6">
+        <v>1.8597063621533443E-2</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_processing/FinalResultSheets.xlsx
+++ b/optimize_processing/FinalResultSheets.xlsx
@@ -15,6 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="FinalSheets1123" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Sample300">FinalSheets1123!$A$21:$P$25</definedName>
+    <definedName name="SampleFull">FinalSheets1123!$A$14:$P$18</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -652,15 +656,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P6"/>
+  <dimension ref="A2:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="Q2" sqref="Q2:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -689,225 +693,740 @@
         <v>3</v>
       </c>
       <c r="J2">
+        <v>7.9187950345557794E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.1716222012871858E-2</v>
+      </c>
+      <c r="L2">
+        <v>7.3310116271103482E-2</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>67.500957192862131</v>
+      </c>
+      <c r="O2">
+        <v>13.299174538126522</v>
+      </c>
+      <c r="P2">
+        <v>1.4723926380368098E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.8275883724388157E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.97</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1968</v>
+      </c>
+      <c r="H3">
+        <v>984</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>6.0646571886609629E-3</v>
+      </c>
+      <c r="K3">
+        <v>7.0705048744467022E-2</v>
+      </c>
+      <c r="L3">
+        <v>9.4961120087006967E-2</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>67.576461024652176</v>
+      </c>
+      <c r="O3">
+        <v>10.705100078120944</v>
+      </c>
+      <c r="P3">
+        <v>2.3312883435582823E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2.904808816216593E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.97</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>1968</v>
+      </c>
+      <c r="H4">
+        <v>984</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>8.4163660400239804E-3</v>
+      </c>
+      <c r="K4">
+        <v>1.4017059700556942E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.15321543855738071</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>67.479604034276619</v>
+      </c>
+      <c r="O4">
+        <v>9.7202138243884644</v>
+      </c>
+      <c r="P4">
+        <v>1.9631901840490799E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.0930196069106883E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1968</v>
+      </c>
+      <c r="H5">
+        <v>984</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4.8289216187420454E-3</v>
+      </c>
+      <c r="K5">
+        <v>2.784055595444487E-2</v>
+      </c>
+      <c r="L5">
+        <v>2.579399049546555E-2</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>67.17765209737226</v>
+      </c>
+      <c r="O5">
+        <v>10.369136854128758</v>
+      </c>
+      <c r="P5">
+        <v>8.5889570552147246E-3</v>
+      </c>
+      <c r="Q5">
+        <v>1.1411937314344525E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.97</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1968</v>
+      </c>
+      <c r="H6">
+        <v>984</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>9.1721658458554997E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.2949300420868413E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.0605457007617857E-2</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>67.362859709515661</v>
+      </c>
+      <c r="O6">
+        <v>12.475936757051109</v>
+      </c>
+      <c r="P6">
+        <v>1.4723926380368098E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.2945996446943314E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.97</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>1968</v>
+      </c>
+      <c r="H14">
+        <v>984</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>9.2901503541301181E-3</v>
       </c>
-      <c r="K2">
+      <c r="K14">
         <v>4.0258337936779118E-2</v>
       </c>
-      <c r="L2">
+      <c r="L14">
         <v>5.2752539973885099E-2</v>
       </c>
-      <c r="M2">
+      <c r="M14">
         <v>33</v>
       </c>
-      <c r="N2">
+      <c r="N14">
         <v>269.93162968499269</v>
       </c>
-      <c r="O2">
+      <c r="O14">
         <v>39.780329822519356</v>
       </c>
-      <c r="P2">
+      <c r="P14">
         <v>2.0228384991843394E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.97</v>
-      </c>
-      <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>1968</v>
-      </c>
-      <c r="H3">
-        <v>984</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.97</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>1968</v>
+      </c>
+      <c r="H15">
+        <v>984</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <v>9.3675003481940682E-3</v>
       </c>
-      <c r="K3">
+      <c r="K15">
         <v>5.9104265826384797E-2</v>
       </c>
-      <c r="L3">
+      <c r="L15">
         <v>4.0020390874937126E-2</v>
       </c>
-      <c r="M3">
+      <c r="M15">
         <v>44</v>
       </c>
-      <c r="N3">
+      <c r="N15">
         <v>271.75457919133351</v>
       </c>
-      <c r="O3">
+      <c r="O15">
         <v>50.246622204942511</v>
       </c>
-      <c r="P3">
+      <c r="P15">
         <v>1.8270799347471452E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0.97</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>1968</v>
-      </c>
-      <c r="H4">
-        <v>984</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0.97</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>1968</v>
+      </c>
+      <c r="H16">
+        <v>984</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
         <v>9.53776175097318E-3</v>
       </c>
-      <c r="K4">
+      <c r="K16">
         <v>7.0028283547520095E-2</v>
       </c>
-      <c r="L4">
+      <c r="L16">
         <v>6.7609322486650469E-2</v>
       </c>
-      <c r="M4">
+      <c r="M16">
         <v>41</v>
       </c>
-      <c r="N4">
+      <c r="N16">
         <v>268.81026571987786</v>
       </c>
-      <c r="O4">
+      <c r="O16">
         <v>48.116546909392987</v>
       </c>
-      <c r="P4">
+      <c r="P16">
         <v>2.7079934747145186E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.97</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>1968</v>
-      </c>
-      <c r="H5">
-        <v>984</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0.97</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>1968</v>
+      </c>
+      <c r="H17">
+        <v>984</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>4.4632892330857439E-2</v>
       </c>
-      <c r="K5">
+      <c r="K17">
         <v>0.15760791142031555</v>
       </c>
-      <c r="L5">
+      <c r="L17">
         <v>9.5921361753544654E-2</v>
       </c>
-      <c r="M5">
+      <c r="M17">
         <v>79</v>
       </c>
-      <c r="N5">
+      <c r="N17">
         <v>268.84377109235294</v>
       </c>
-      <c r="O5">
+      <c r="O17">
         <v>86.487232296912708</v>
       </c>
-      <c r="P5">
+      <c r="P17">
         <v>2.4796084828711255E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>0.97</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>1968</v>
-      </c>
-      <c r="H6">
-        <v>984</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0.97</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>1968</v>
+      </c>
+      <c r="H18">
+        <v>984</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
         <v>9.015089527290826E-3</v>
       </c>
-      <c r="K6">
+      <c r="K18">
         <v>6.4826768133407583E-2</v>
       </c>
-      <c r="L6">
+      <c r="L18">
         <v>5.7811065019905142E-2</v>
       </c>
-      <c r="M6">
+      <c r="M18">
         <v>37</v>
       </c>
-      <c r="N6">
+      <c r="N18">
         <v>268.63246661748389</v>
       </c>
-      <c r="O6">
+      <c r="O18">
         <v>58.905514107048631</v>
       </c>
-      <c r="P6">
+      <c r="P18">
         <v>1.8597063621533443E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0.97</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>1968</v>
+      </c>
+      <c r="H21">
+        <v>984</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>9.4186976994717151E-3</v>
+      </c>
+      <c r="K21">
+        <v>6.9527774484627963E-2</v>
+      </c>
+      <c r="L21">
+        <v>9.1552108812859731E-2</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>67.808377293972612</v>
+      </c>
+      <c r="O21">
+        <v>10.836473062763599</v>
+      </c>
+      <c r="P21">
+        <v>1.9631901840490799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.97</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>1968</v>
+      </c>
+      <c r="H22">
+        <v>984</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>9.1267171295265487E-3</v>
+      </c>
+      <c r="K22">
+        <v>3.8242765794405491E-2</v>
+      </c>
+      <c r="L22">
+        <v>9.7561672487776738E-2</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>67.670522806606598</v>
+      </c>
+      <c r="O22">
+        <v>10.616055785839945</v>
+      </c>
+      <c r="P22">
+        <v>1.5950920245398775E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.97</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>1968</v>
+      </c>
+      <c r="H23">
+        <v>984</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>8.7919375432504148E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.25469220688115762</v>
+      </c>
+      <c r="L23">
+        <v>0.26729840477482936</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>67.295194837497576</v>
+      </c>
+      <c r="O23">
+        <v>12.956698418141446</v>
+      </c>
+      <c r="P23">
+        <v>1.7177914110429449E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0.97</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>1968</v>
+      </c>
+      <c r="H24">
+        <v>984</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>8.4820221091350262E-3</v>
+      </c>
+      <c r="K24">
+        <v>4.1056273847739716E-2</v>
+      </c>
+      <c r="L24">
+        <v>6.3178324050159843E-2</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>67.161668999025608</v>
+      </c>
+      <c r="O24">
+        <v>12.259849336454952</v>
+      </c>
+      <c r="P24">
+        <v>2.2085889570552148E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.97</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>1968</v>
+      </c>
+      <c r="H25">
+        <v>984</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>9.5264254573349093E-3</v>
+      </c>
+      <c r="K25">
+        <v>7.8434691894534822E-2</v>
+      </c>
+      <c r="L25">
+        <v>4.7547932330056199E-2</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>67.579242951305417</v>
+      </c>
+      <c r="O25">
+        <v>9.0322131168324677</v>
+      </c>
+      <c r="P25">
+        <v>1.8404907975460124E-2</v>
       </c>
     </row>
   </sheetData>
